--- a/results/stats/welch/f_sel/stat_cmp_sig_group.xlsx
+++ b/results/stats/welch/f_sel/stat_cmp_sig_group.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S721"/>
+  <dimension ref="A1:S841"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54530,6 +54530,9006 @@
         </is>
       </c>
     </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G722" t="n">
+        <v>1</v>
+      </c>
+      <c r="H722" t="n">
+        <v>181</v>
+      </c>
+      <c r="I722" t="n">
+        <v>101</v>
+      </c>
+      <c r="J722" t="n">
+        <v>11</v>
+      </c>
+      <c r="K722" t="n">
+        <v>11</v>
+      </c>
+      <c r="L722" t="n">
+        <v>0</v>
+      </c>
+      <c r="M722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N722" t="n">
+        <v>11</v>
+      </c>
+      <c r="O722" t="n">
+        <v>11</v>
+      </c>
+      <c r="P722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R722" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S722" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G723" t="n">
+        <v>4.305431634024459e-80</v>
+      </c>
+      <c r="H723" t="n">
+        <v>182</v>
+      </c>
+      <c r="I723" t="n">
+        <v>103</v>
+      </c>
+      <c r="J723" t="n">
+        <v>11</v>
+      </c>
+      <c r="K723" t="n">
+        <v>10</v>
+      </c>
+      <c r="L723" t="n">
+        <v>0</v>
+      </c>
+      <c r="M723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N723" t="n">
+        <v>11</v>
+      </c>
+      <c r="O723" t="n">
+        <v>10</v>
+      </c>
+      <c r="P723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R723" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S723" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G724" t="n">
+        <v>1</v>
+      </c>
+      <c r="H724" t="n">
+        <v>104</v>
+      </c>
+      <c r="I724" t="n">
+        <v>111</v>
+      </c>
+      <c r="J724" t="n">
+        <v>11</v>
+      </c>
+      <c r="K724" t="n">
+        <v>11</v>
+      </c>
+      <c r="L724" t="n">
+        <v>0</v>
+      </c>
+      <c r="M724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N724" t="n">
+        <v>11</v>
+      </c>
+      <c r="O724" t="n">
+        <v>11</v>
+      </c>
+      <c r="P724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q724" t="n">
+        <v>0</v>
+      </c>
+      <c r="R724" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S724" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G725" t="n">
+        <v>3.805127063675643e-64</v>
+      </c>
+      <c r="H725" t="n">
+        <v>105</v>
+      </c>
+      <c r="I725" t="n">
+        <v>111</v>
+      </c>
+      <c r="J725" t="n">
+        <v>11</v>
+      </c>
+      <c r="K725" t="n">
+        <v>10</v>
+      </c>
+      <c r="L725" t="n">
+        <v>0</v>
+      </c>
+      <c r="M725" t="n">
+        <v>0</v>
+      </c>
+      <c r="N725" t="n">
+        <v>11</v>
+      </c>
+      <c r="O725" t="n">
+        <v>10</v>
+      </c>
+      <c r="P725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q725" t="n">
+        <v>0</v>
+      </c>
+      <c r="R725" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S725" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G726" t="n">
+        <v>1.950440085201047e-29</v>
+      </c>
+      <c r="H726" t="n">
+        <v>198</v>
+      </c>
+      <c r="I726" t="n">
+        <v>21</v>
+      </c>
+      <c r="J726" t="n">
+        <v>21</v>
+      </c>
+      <c r="K726" t="n">
+        <v>17</v>
+      </c>
+      <c r="L726" t="n">
+        <v>0</v>
+      </c>
+      <c r="M726" t="n">
+        <v>0</v>
+      </c>
+      <c r="N726" t="n">
+        <v>21</v>
+      </c>
+      <c r="O726" t="n">
+        <v>17</v>
+      </c>
+      <c r="P726" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q726" t="n">
+        <v>0</v>
+      </c>
+      <c r="R726" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S726" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G727" t="n">
+        <v>1</v>
+      </c>
+      <c r="H727" t="n">
+        <v>198</v>
+      </c>
+      <c r="I727" t="n">
+        <v>21</v>
+      </c>
+      <c r="J727" t="n">
+        <v>16</v>
+      </c>
+      <c r="K727" t="n">
+        <v>16</v>
+      </c>
+      <c r="L727" t="n">
+        <v>0</v>
+      </c>
+      <c r="M727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N727" t="n">
+        <v>16</v>
+      </c>
+      <c r="O727" t="n">
+        <v>16</v>
+      </c>
+      <c r="P727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R727" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S727" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F728" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G728" t="n">
+        <v>7.085077123113138e-40</v>
+      </c>
+      <c r="H728" t="n">
+        <v>152</v>
+      </c>
+      <c r="I728" t="n">
+        <v>37</v>
+      </c>
+      <c r="J728" t="n">
+        <v>21</v>
+      </c>
+      <c r="K728" t="n">
+        <v>20</v>
+      </c>
+      <c r="L728" t="n">
+        <v>0</v>
+      </c>
+      <c r="M728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N728" t="n">
+        <v>21</v>
+      </c>
+      <c r="O728" t="n">
+        <v>20</v>
+      </c>
+      <c r="P728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q728" t="n">
+        <v>0</v>
+      </c>
+      <c r="R728" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S728" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G729" t="n">
+        <v>1.794395941536882e-48</v>
+      </c>
+      <c r="H729" t="n">
+        <v>730</v>
+      </c>
+      <c r="I729" t="n">
+        <v>26</v>
+      </c>
+      <c r="J729" t="n">
+        <v>21</v>
+      </c>
+      <c r="K729" t="n">
+        <v>17</v>
+      </c>
+      <c r="L729" t="n">
+        <v>0</v>
+      </c>
+      <c r="M729" t="n">
+        <v>0</v>
+      </c>
+      <c r="N729" t="n">
+        <v>21</v>
+      </c>
+      <c r="O729" t="n">
+        <v>17</v>
+      </c>
+      <c r="P729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q729" t="n">
+        <v>0</v>
+      </c>
+      <c r="R729" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S729" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F730" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G730" t="n">
+        <v>1</v>
+      </c>
+      <c r="H730" t="n">
+        <v>730</v>
+      </c>
+      <c r="I730" t="n">
+        <v>26</v>
+      </c>
+      <c r="J730" t="n">
+        <v>16</v>
+      </c>
+      <c r="K730" t="n">
+        <v>16</v>
+      </c>
+      <c r="L730" t="n">
+        <v>0</v>
+      </c>
+      <c r="M730" t="n">
+        <v>0</v>
+      </c>
+      <c r="N730" t="n">
+        <v>16</v>
+      </c>
+      <c r="O730" t="n">
+        <v>16</v>
+      </c>
+      <c r="P730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q730" t="n">
+        <v>0</v>
+      </c>
+      <c r="R730" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S730" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G731" t="n">
+        <v>3.796437409886397e-46</v>
+      </c>
+      <c r="H731" t="n">
+        <v>199</v>
+      </c>
+      <c r="I731" t="n">
+        <v>40</v>
+      </c>
+      <c r="J731" t="n">
+        <v>21</v>
+      </c>
+      <c r="K731" t="n">
+        <v>20</v>
+      </c>
+      <c r="L731" t="n">
+        <v>0</v>
+      </c>
+      <c r="M731" t="n">
+        <v>0</v>
+      </c>
+      <c r="N731" t="n">
+        <v>21</v>
+      </c>
+      <c r="O731" t="n">
+        <v>20</v>
+      </c>
+      <c r="P731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q731" t="n">
+        <v>0</v>
+      </c>
+      <c r="R731" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S731" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G732" t="n">
+        <v>1</v>
+      </c>
+      <c r="H732" t="n">
+        <v>181</v>
+      </c>
+      <c r="I732" t="n">
+        <v>101</v>
+      </c>
+      <c r="J732" t="n">
+        <v>11</v>
+      </c>
+      <c r="K732" t="n">
+        <v>11</v>
+      </c>
+      <c r="L732" t="n">
+        <v>0</v>
+      </c>
+      <c r="M732" t="n">
+        <v>0</v>
+      </c>
+      <c r="N732" t="n">
+        <v>11</v>
+      </c>
+      <c r="O732" t="n">
+        <v>11</v>
+      </c>
+      <c r="P732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q732" t="n">
+        <v>0</v>
+      </c>
+      <c r="R732" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S732" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F733" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G733" t="n">
+        <v>1.024591710624459e-63</v>
+      </c>
+      <c r="H733" t="n">
+        <v>182</v>
+      </c>
+      <c r="I733" t="n">
+        <v>103</v>
+      </c>
+      <c r="J733" t="n">
+        <v>11</v>
+      </c>
+      <c r="K733" t="n">
+        <v>10</v>
+      </c>
+      <c r="L733" t="n">
+        <v>0</v>
+      </c>
+      <c r="M733" t="n">
+        <v>0</v>
+      </c>
+      <c r="N733" t="n">
+        <v>11</v>
+      </c>
+      <c r="O733" t="n">
+        <v>10</v>
+      </c>
+      <c r="P733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q733" t="n">
+        <v>0</v>
+      </c>
+      <c r="R733" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S733" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F734" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G734" t="n">
+        <v>1</v>
+      </c>
+      <c r="H734" t="n">
+        <v>104</v>
+      </c>
+      <c r="I734" t="n">
+        <v>111</v>
+      </c>
+      <c r="J734" t="n">
+        <v>11</v>
+      </c>
+      <c r="K734" t="n">
+        <v>11</v>
+      </c>
+      <c r="L734" t="n">
+        <v>0</v>
+      </c>
+      <c r="M734" t="n">
+        <v>0</v>
+      </c>
+      <c r="N734" t="n">
+        <v>11</v>
+      </c>
+      <c r="O734" t="n">
+        <v>11</v>
+      </c>
+      <c r="P734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q734" t="n">
+        <v>0</v>
+      </c>
+      <c r="R734" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S734" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G735" t="n">
+        <v>1.135311504612073e-48</v>
+      </c>
+      <c r="H735" t="n">
+        <v>105</v>
+      </c>
+      <c r="I735" t="n">
+        <v>111</v>
+      </c>
+      <c r="J735" t="n">
+        <v>11</v>
+      </c>
+      <c r="K735" t="n">
+        <v>10</v>
+      </c>
+      <c r="L735" t="n">
+        <v>0</v>
+      </c>
+      <c r="M735" t="n">
+        <v>0</v>
+      </c>
+      <c r="N735" t="n">
+        <v>11</v>
+      </c>
+      <c r="O735" t="n">
+        <v>10</v>
+      </c>
+      <c r="P735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q735" t="n">
+        <v>0</v>
+      </c>
+      <c r="R735" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S735" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F736" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G736" t="n">
+        <v>2.603238085180718e-49</v>
+      </c>
+      <c r="H736" t="n">
+        <v>198</v>
+      </c>
+      <c r="I736" t="n">
+        <v>21</v>
+      </c>
+      <c r="J736" t="n">
+        <v>21</v>
+      </c>
+      <c r="K736" t="n">
+        <v>17</v>
+      </c>
+      <c r="L736" t="n">
+        <v>0</v>
+      </c>
+      <c r="M736" t="n">
+        <v>0</v>
+      </c>
+      <c r="N736" t="n">
+        <v>21</v>
+      </c>
+      <c r="O736" t="n">
+        <v>17</v>
+      </c>
+      <c r="P736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q736" t="n">
+        <v>0</v>
+      </c>
+      <c r="R736" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S736" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F737" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G737" t="n">
+        <v>1</v>
+      </c>
+      <c r="H737" t="n">
+        <v>198</v>
+      </c>
+      <c r="I737" t="n">
+        <v>21</v>
+      </c>
+      <c r="J737" t="n">
+        <v>16</v>
+      </c>
+      <c r="K737" t="n">
+        <v>16</v>
+      </c>
+      <c r="L737" t="n">
+        <v>0</v>
+      </c>
+      <c r="M737" t="n">
+        <v>0</v>
+      </c>
+      <c r="N737" t="n">
+        <v>16</v>
+      </c>
+      <c r="O737" t="n">
+        <v>16</v>
+      </c>
+      <c r="P737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q737" t="n">
+        <v>0</v>
+      </c>
+      <c r="R737" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S737" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F738" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G738" t="n">
+        <v>8.984470931621611e-43</v>
+      </c>
+      <c r="H738" t="n">
+        <v>152</v>
+      </c>
+      <c r="I738" t="n">
+        <v>37</v>
+      </c>
+      <c r="J738" t="n">
+        <v>21</v>
+      </c>
+      <c r="K738" t="n">
+        <v>20</v>
+      </c>
+      <c r="L738" t="n">
+        <v>0</v>
+      </c>
+      <c r="M738" t="n">
+        <v>0</v>
+      </c>
+      <c r="N738" t="n">
+        <v>21</v>
+      </c>
+      <c r="O738" t="n">
+        <v>20</v>
+      </c>
+      <c r="P738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q738" t="n">
+        <v>0</v>
+      </c>
+      <c r="R738" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S738" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F739" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G739" t="n">
+        <v>3.416051254649816e-166</v>
+      </c>
+      <c r="H739" t="n">
+        <v>730</v>
+      </c>
+      <c r="I739" t="n">
+        <v>26</v>
+      </c>
+      <c r="J739" t="n">
+        <v>21</v>
+      </c>
+      <c r="K739" t="n">
+        <v>17</v>
+      </c>
+      <c r="L739" t="n">
+        <v>0</v>
+      </c>
+      <c r="M739" t="n">
+        <v>0</v>
+      </c>
+      <c r="N739" t="n">
+        <v>21</v>
+      </c>
+      <c r="O739" t="n">
+        <v>17</v>
+      </c>
+      <c r="P739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q739" t="n">
+        <v>0</v>
+      </c>
+      <c r="R739" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S739" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F740" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G740" t="n">
+        <v>1</v>
+      </c>
+      <c r="H740" t="n">
+        <v>730</v>
+      </c>
+      <c r="I740" t="n">
+        <v>26</v>
+      </c>
+      <c r="J740" t="n">
+        <v>16</v>
+      </c>
+      <c r="K740" t="n">
+        <v>16</v>
+      </c>
+      <c r="L740" t="n">
+        <v>0</v>
+      </c>
+      <c r="M740" t="n">
+        <v>0</v>
+      </c>
+      <c r="N740" t="n">
+        <v>16</v>
+      </c>
+      <c r="O740" t="n">
+        <v>16</v>
+      </c>
+      <c r="P740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q740" t="n">
+        <v>0</v>
+      </c>
+      <c r="R740" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S740" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F741" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G741" t="n">
+        <v>1.106218039972715e-53</v>
+      </c>
+      <c r="H741" t="n">
+        <v>199</v>
+      </c>
+      <c r="I741" t="n">
+        <v>40</v>
+      </c>
+      <c r="J741" t="n">
+        <v>21</v>
+      </c>
+      <c r="K741" t="n">
+        <v>20</v>
+      </c>
+      <c r="L741" t="n">
+        <v>0</v>
+      </c>
+      <c r="M741" t="n">
+        <v>0</v>
+      </c>
+      <c r="N741" t="n">
+        <v>21</v>
+      </c>
+      <c r="O741" t="n">
+        <v>20</v>
+      </c>
+      <c r="P741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q741" t="n">
+        <v>0</v>
+      </c>
+      <c r="R741" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S741" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F742" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G742" t="n">
+        <v>1.077513708578955e-96</v>
+      </c>
+      <c r="H742" t="n">
+        <v>181</v>
+      </c>
+      <c r="I742" t="n">
+        <v>146</v>
+      </c>
+      <c r="J742" t="n">
+        <v>11</v>
+      </c>
+      <c r="K742" t="n">
+        <v>10</v>
+      </c>
+      <c r="L742" t="n">
+        <v>0</v>
+      </c>
+      <c r="M742" t="n">
+        <v>0</v>
+      </c>
+      <c r="N742" t="n">
+        <v>11</v>
+      </c>
+      <c r="O742" t="n">
+        <v>10</v>
+      </c>
+      <c r="P742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q742" t="n">
+        <v>0</v>
+      </c>
+      <c r="R742" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S742" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F743" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G743" t="n">
+        <v>2.436694094297256e-98</v>
+      </c>
+      <c r="H743" t="n">
+        <v>182</v>
+      </c>
+      <c r="I743" t="n">
+        <v>150</v>
+      </c>
+      <c r="J743" t="n">
+        <v>11</v>
+      </c>
+      <c r="K743" t="n">
+        <v>9</v>
+      </c>
+      <c r="L743" t="n">
+        <v>0</v>
+      </c>
+      <c r="M743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N743" t="n">
+        <v>11</v>
+      </c>
+      <c r="O743" t="n">
+        <v>9</v>
+      </c>
+      <c r="P743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q743" t="n">
+        <v>0</v>
+      </c>
+      <c r="R743" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S743" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F744" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G744" t="n">
+        <v>3.46243199669811e-68</v>
+      </c>
+      <c r="H744" t="n">
+        <v>104</v>
+      </c>
+      <c r="I744" t="n">
+        <v>127</v>
+      </c>
+      <c r="J744" t="n">
+        <v>11</v>
+      </c>
+      <c r="K744" t="n">
+        <v>10</v>
+      </c>
+      <c r="L744" t="n">
+        <v>0</v>
+      </c>
+      <c r="M744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N744" t="n">
+        <v>11</v>
+      </c>
+      <c r="O744" t="n">
+        <v>10</v>
+      </c>
+      <c r="P744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q744" t="n">
+        <v>0</v>
+      </c>
+      <c r="R744" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S744" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F745" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G745" t="n">
+        <v>8.608681004074042e-69</v>
+      </c>
+      <c r="H745" t="n">
+        <v>105</v>
+      </c>
+      <c r="I745" t="n">
+        <v>128</v>
+      </c>
+      <c r="J745" t="n">
+        <v>11</v>
+      </c>
+      <c r="K745" t="n">
+        <v>9</v>
+      </c>
+      <c r="L745" t="n">
+        <v>0</v>
+      </c>
+      <c r="M745" t="n">
+        <v>0</v>
+      </c>
+      <c r="N745" t="n">
+        <v>11</v>
+      </c>
+      <c r="O745" t="n">
+        <v>9</v>
+      </c>
+      <c r="P745" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q745" t="n">
+        <v>0</v>
+      </c>
+      <c r="R745" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S745" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F746" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G746" t="n">
+        <v>1.209147885965852e-101</v>
+      </c>
+      <c r="H746" t="n">
+        <v>198</v>
+      </c>
+      <c r="I746" t="n">
+        <v>148</v>
+      </c>
+      <c r="J746" t="n">
+        <v>21</v>
+      </c>
+      <c r="K746" t="n">
+        <v>19</v>
+      </c>
+      <c r="L746" t="n">
+        <v>0</v>
+      </c>
+      <c r="M746" t="n">
+        <v>0</v>
+      </c>
+      <c r="N746" t="n">
+        <v>21</v>
+      </c>
+      <c r="O746" t="n">
+        <v>19</v>
+      </c>
+      <c r="P746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q746" t="n">
+        <v>0</v>
+      </c>
+      <c r="R746" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S746" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F747" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G747" t="n">
+        <v>1</v>
+      </c>
+      <c r="H747" t="n">
+        <v>198</v>
+      </c>
+      <c r="I747" t="n">
+        <v>148</v>
+      </c>
+      <c r="J747" t="n">
+        <v>16</v>
+      </c>
+      <c r="K747" t="n">
+        <v>16</v>
+      </c>
+      <c r="L747" t="n">
+        <v>0</v>
+      </c>
+      <c r="M747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N747" t="n">
+        <v>16</v>
+      </c>
+      <c r="O747" t="n">
+        <v>16</v>
+      </c>
+      <c r="P747" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q747" t="n">
+        <v>0</v>
+      </c>
+      <c r="R747" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S747" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F748" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G748" t="n">
+        <v>6.663041035828734e-304</v>
+      </c>
+      <c r="H748" t="n">
+        <v>730</v>
+      </c>
+      <c r="I748" t="n">
+        <v>370</v>
+      </c>
+      <c r="J748" t="n">
+        <v>21</v>
+      </c>
+      <c r="K748" t="n">
+        <v>19</v>
+      </c>
+      <c r="L748" t="n">
+        <v>0</v>
+      </c>
+      <c r="M748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N748" t="n">
+        <v>21</v>
+      </c>
+      <c r="O748" t="n">
+        <v>19</v>
+      </c>
+      <c r="P748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q748" t="n">
+        <v>0</v>
+      </c>
+      <c r="R748" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S748" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F749" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G749" t="n">
+        <v>1</v>
+      </c>
+      <c r="H749" t="n">
+        <v>730</v>
+      </c>
+      <c r="I749" t="n">
+        <v>370</v>
+      </c>
+      <c r="J749" t="n">
+        <v>16</v>
+      </c>
+      <c r="K749" t="n">
+        <v>16</v>
+      </c>
+      <c r="L749" t="n">
+        <v>0</v>
+      </c>
+      <c r="M749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N749" t="n">
+        <v>16</v>
+      </c>
+      <c r="O749" t="n">
+        <v>16</v>
+      </c>
+      <c r="P749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q749" t="n">
+        <v>0</v>
+      </c>
+      <c r="R749" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S749" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F750" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G750" t="n">
+        <v>7.234065235641493e-73</v>
+      </c>
+      <c r="H750" t="n">
+        <v>181</v>
+      </c>
+      <c r="I750" t="n">
+        <v>146</v>
+      </c>
+      <c r="J750" t="n">
+        <v>11</v>
+      </c>
+      <c r="K750" t="n">
+        <v>10</v>
+      </c>
+      <c r="L750" t="n">
+        <v>0</v>
+      </c>
+      <c r="M750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N750" t="n">
+        <v>11</v>
+      </c>
+      <c r="O750" t="n">
+        <v>10</v>
+      </c>
+      <c r="P750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R750" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S750" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F751" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G751" t="n">
+        <v>5.892076082057369e-74</v>
+      </c>
+      <c r="H751" t="n">
+        <v>182</v>
+      </c>
+      <c r="I751" t="n">
+        <v>150</v>
+      </c>
+      <c r="J751" t="n">
+        <v>11</v>
+      </c>
+      <c r="K751" t="n">
+        <v>9</v>
+      </c>
+      <c r="L751" t="n">
+        <v>0</v>
+      </c>
+      <c r="M751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N751" t="n">
+        <v>11</v>
+      </c>
+      <c r="O751" t="n">
+        <v>9</v>
+      </c>
+      <c r="P751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R751" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S751" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F752" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G752" t="n">
+        <v>6.066491173716673e-52</v>
+      </c>
+      <c r="H752" t="n">
+        <v>104</v>
+      </c>
+      <c r="I752" t="n">
+        <v>127</v>
+      </c>
+      <c r="J752" t="n">
+        <v>11</v>
+      </c>
+      <c r="K752" t="n">
+        <v>10</v>
+      </c>
+      <c r="L752" t="n">
+        <v>0</v>
+      </c>
+      <c r="M752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N752" t="n">
+        <v>11</v>
+      </c>
+      <c r="O752" t="n">
+        <v>10</v>
+      </c>
+      <c r="P752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q752" t="n">
+        <v>0</v>
+      </c>
+      <c r="R752" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S752" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F753" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G753" t="n">
+        <v>2.221838449787052e-52</v>
+      </c>
+      <c r="H753" t="n">
+        <v>105</v>
+      </c>
+      <c r="I753" t="n">
+        <v>128</v>
+      </c>
+      <c r="J753" t="n">
+        <v>11</v>
+      </c>
+      <c r="K753" t="n">
+        <v>9</v>
+      </c>
+      <c r="L753" t="n">
+        <v>0</v>
+      </c>
+      <c r="M753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N753" t="n">
+        <v>11</v>
+      </c>
+      <c r="O753" t="n">
+        <v>9</v>
+      </c>
+      <c r="P753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R753" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S753" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F754" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G754" t="n">
+        <v>5.261507722047764e-77</v>
+      </c>
+      <c r="H754" t="n">
+        <v>198</v>
+      </c>
+      <c r="I754" t="n">
+        <v>148</v>
+      </c>
+      <c r="J754" t="n">
+        <v>21</v>
+      </c>
+      <c r="K754" t="n">
+        <v>19</v>
+      </c>
+      <c r="L754" t="n">
+        <v>0</v>
+      </c>
+      <c r="M754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N754" t="n">
+        <v>21</v>
+      </c>
+      <c r="O754" t="n">
+        <v>19</v>
+      </c>
+      <c r="P754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R754" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S754" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F755" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G755" t="n">
+        <v>1</v>
+      </c>
+      <c r="H755" t="n">
+        <v>198</v>
+      </c>
+      <c r="I755" t="n">
+        <v>148</v>
+      </c>
+      <c r="J755" t="n">
+        <v>16</v>
+      </c>
+      <c r="K755" t="n">
+        <v>16</v>
+      </c>
+      <c r="L755" t="n">
+        <v>0</v>
+      </c>
+      <c r="M755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N755" t="n">
+        <v>16</v>
+      </c>
+      <c r="O755" t="n">
+        <v>16</v>
+      </c>
+      <c r="P755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R755" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S755" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F756" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G756" t="n">
+        <v>5.470132153004623e-241</v>
+      </c>
+      <c r="H756" t="n">
+        <v>730</v>
+      </c>
+      <c r="I756" t="n">
+        <v>370</v>
+      </c>
+      <c r="J756" t="n">
+        <v>21</v>
+      </c>
+      <c r="K756" t="n">
+        <v>19</v>
+      </c>
+      <c r="L756" t="n">
+        <v>0</v>
+      </c>
+      <c r="M756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N756" t="n">
+        <v>21</v>
+      </c>
+      <c r="O756" t="n">
+        <v>19</v>
+      </c>
+      <c r="P756" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q756" t="n">
+        <v>0</v>
+      </c>
+      <c r="R756" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S756" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F757" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G757" t="n">
+        <v>1</v>
+      </c>
+      <c r="H757" t="n">
+        <v>730</v>
+      </c>
+      <c r="I757" t="n">
+        <v>370</v>
+      </c>
+      <c r="J757" t="n">
+        <v>16</v>
+      </c>
+      <c r="K757" t="n">
+        <v>16</v>
+      </c>
+      <c r="L757" t="n">
+        <v>0</v>
+      </c>
+      <c r="M757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N757" t="n">
+        <v>16</v>
+      </c>
+      <c r="O757" t="n">
+        <v>16</v>
+      </c>
+      <c r="P757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q757" t="n">
+        <v>0</v>
+      </c>
+      <c r="R757" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S757" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F758" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G758" t="n">
+        <v>0.0001697648756472285</v>
+      </c>
+      <c r="H758" t="n">
+        <v>152</v>
+      </c>
+      <c r="I758" t="n">
+        <v>2</v>
+      </c>
+      <c r="J758" t="n">
+        <v>21</v>
+      </c>
+      <c r="K758" t="n">
+        <v>13</v>
+      </c>
+      <c r="L758" t="n">
+        <v>0</v>
+      </c>
+      <c r="M758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N758" t="n">
+        <v>21</v>
+      </c>
+      <c r="O758" t="n">
+        <v>13</v>
+      </c>
+      <c r="P758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q758" t="n">
+        <v>0</v>
+      </c>
+      <c r="R758" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S758" t="inlineStr">
+        <is>
+          <t>STR&gt;2Hz</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F759" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G759" t="n">
+        <v>1.130267154188169e-47</v>
+      </c>
+      <c r="H759" t="n">
+        <v>199</v>
+      </c>
+      <c r="I759" t="n">
+        <v>42</v>
+      </c>
+      <c r="J759" t="n">
+        <v>21</v>
+      </c>
+      <c r="K759" t="n">
+        <v>13</v>
+      </c>
+      <c r="L759" t="n">
+        <v>0</v>
+      </c>
+      <c r="M759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N759" t="n">
+        <v>21</v>
+      </c>
+      <c r="O759" t="n">
+        <v>13</v>
+      </c>
+      <c r="P759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q759" t="n">
+        <v>0</v>
+      </c>
+      <c r="R759" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S759" t="inlineStr">
+        <is>
+          <t>STR&gt;2Hz</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E760" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F760" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G760" t="n">
+        <v>6.351876168502541e-35</v>
+      </c>
+      <c r="H760" t="n">
+        <v>152</v>
+      </c>
+      <c r="I760" t="n">
+        <v>2</v>
+      </c>
+      <c r="J760" t="n">
+        <v>21</v>
+      </c>
+      <c r="K760" t="n">
+        <v>13</v>
+      </c>
+      <c r="L760" t="n">
+        <v>0</v>
+      </c>
+      <c r="M760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N760" t="n">
+        <v>21</v>
+      </c>
+      <c r="O760" t="n">
+        <v>13</v>
+      </c>
+      <c r="P760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R760" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S760" t="inlineStr">
+        <is>
+          <t>STR&gt;2Hz</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E761" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F761" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G761" t="n">
+        <v>4.047874945669423e-54</v>
+      </c>
+      <c r="H761" t="n">
+        <v>199</v>
+      </c>
+      <c r="I761" t="n">
+        <v>42</v>
+      </c>
+      <c r="J761" t="n">
+        <v>21</v>
+      </c>
+      <c r="K761" t="n">
+        <v>13</v>
+      </c>
+      <c r="L761" t="n">
+        <v>0</v>
+      </c>
+      <c r="M761" t="n">
+        <v>0</v>
+      </c>
+      <c r="N761" t="n">
+        <v>21</v>
+      </c>
+      <c r="O761" t="n">
+        <v>13</v>
+      </c>
+      <c r="P761" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q761" t="n">
+        <v>0</v>
+      </c>
+      <c r="R761" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S761" t="inlineStr">
+        <is>
+          <t>STR&gt;2Hz</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F762" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G762" t="n">
+        <v>1.057782794356823e-71</v>
+      </c>
+      <c r="H762" t="n">
+        <v>101</v>
+      </c>
+      <c r="I762" t="n">
+        <v>146</v>
+      </c>
+      <c r="J762" t="n">
+        <v>11</v>
+      </c>
+      <c r="K762" t="n">
+        <v>10</v>
+      </c>
+      <c r="L762" t="n">
+        <v>0</v>
+      </c>
+      <c r="M762" t="n">
+        <v>0</v>
+      </c>
+      <c r="N762" t="n">
+        <v>11</v>
+      </c>
+      <c r="O762" t="n">
+        <v>10</v>
+      </c>
+      <c r="P762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q762" t="n">
+        <v>0</v>
+      </c>
+      <c r="R762" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S762" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E763" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F763" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G763" t="n">
+        <v>2.187281363726889e-73</v>
+      </c>
+      <c r="H763" t="n">
+        <v>103</v>
+      </c>
+      <c r="I763" t="n">
+        <v>150</v>
+      </c>
+      <c r="J763" t="n">
+        <v>10</v>
+      </c>
+      <c r="K763" t="n">
+        <v>9</v>
+      </c>
+      <c r="L763" t="n">
+        <v>0</v>
+      </c>
+      <c r="M763" t="n">
+        <v>0</v>
+      </c>
+      <c r="N763" t="n">
+        <v>10</v>
+      </c>
+      <c r="O763" t="n">
+        <v>9</v>
+      </c>
+      <c r="P763" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q763" t="n">
+        <v>0</v>
+      </c>
+      <c r="R763" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S763" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E764" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F764" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G764" t="n">
+        <v>1.497825362696227e-70</v>
+      </c>
+      <c r="H764" t="n">
+        <v>111</v>
+      </c>
+      <c r="I764" t="n">
+        <v>127</v>
+      </c>
+      <c r="J764" t="n">
+        <v>11</v>
+      </c>
+      <c r="K764" t="n">
+        <v>10</v>
+      </c>
+      <c r="L764" t="n">
+        <v>0</v>
+      </c>
+      <c r="M764" t="n">
+        <v>0</v>
+      </c>
+      <c r="N764" t="n">
+        <v>11</v>
+      </c>
+      <c r="O764" t="n">
+        <v>10</v>
+      </c>
+      <c r="P764" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q764" t="n">
+        <v>0</v>
+      </c>
+      <c r="R764" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S764" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E765" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F765" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G765" t="n">
+        <v>8.021826210255948e-71</v>
+      </c>
+      <c r="H765" t="n">
+        <v>111</v>
+      </c>
+      <c r="I765" t="n">
+        <v>128</v>
+      </c>
+      <c r="J765" t="n">
+        <v>10</v>
+      </c>
+      <c r="K765" t="n">
+        <v>9</v>
+      </c>
+      <c r="L765" t="n">
+        <v>0</v>
+      </c>
+      <c r="M765" t="n">
+        <v>0</v>
+      </c>
+      <c r="N765" t="n">
+        <v>10</v>
+      </c>
+      <c r="O765" t="n">
+        <v>9</v>
+      </c>
+      <c r="P765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q765" t="n">
+        <v>0</v>
+      </c>
+      <c r="R765" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S765" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E766" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F766" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G766" t="n">
+        <v>6.118665581560958e-27</v>
+      </c>
+      <c r="H766" t="n">
+        <v>21</v>
+      </c>
+      <c r="I766" t="n">
+        <v>148</v>
+      </c>
+      <c r="J766" t="n">
+        <v>17</v>
+      </c>
+      <c r="K766" t="n">
+        <v>19</v>
+      </c>
+      <c r="L766" t="n">
+        <v>0</v>
+      </c>
+      <c r="M766" t="n">
+        <v>0</v>
+      </c>
+      <c r="N766" t="n">
+        <v>17</v>
+      </c>
+      <c r="O766" t="n">
+        <v>19</v>
+      </c>
+      <c r="P766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q766" t="n">
+        <v>0</v>
+      </c>
+      <c r="R766" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S766" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E767" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F767" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G767" t="n">
+        <v>1</v>
+      </c>
+      <c r="H767" t="n">
+        <v>21</v>
+      </c>
+      <c r="I767" t="n">
+        <v>148</v>
+      </c>
+      <c r="J767" t="n">
+        <v>16</v>
+      </c>
+      <c r="K767" t="n">
+        <v>16</v>
+      </c>
+      <c r="L767" t="n">
+        <v>0</v>
+      </c>
+      <c r="M767" t="n">
+        <v>0</v>
+      </c>
+      <c r="N767" t="n">
+        <v>16</v>
+      </c>
+      <c r="O767" t="n">
+        <v>16</v>
+      </c>
+      <c r="P767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q767" t="n">
+        <v>0</v>
+      </c>
+      <c r="R767" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S767" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E768" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F768" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G768" t="n">
+        <v>5.381576539885046e-41</v>
+      </c>
+      <c r="H768" t="n">
+        <v>26</v>
+      </c>
+      <c r="I768" t="n">
+        <v>370</v>
+      </c>
+      <c r="J768" t="n">
+        <v>17</v>
+      </c>
+      <c r="K768" t="n">
+        <v>19</v>
+      </c>
+      <c r="L768" t="n">
+        <v>0</v>
+      </c>
+      <c r="M768" t="n">
+        <v>0</v>
+      </c>
+      <c r="N768" t="n">
+        <v>17</v>
+      </c>
+      <c r="O768" t="n">
+        <v>19</v>
+      </c>
+      <c r="P768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q768" t="n">
+        <v>0</v>
+      </c>
+      <c r="R768" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S768" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E769" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F769" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G769" t="n">
+        <v>1</v>
+      </c>
+      <c r="H769" t="n">
+        <v>26</v>
+      </c>
+      <c r="I769" t="n">
+        <v>370</v>
+      </c>
+      <c r="J769" t="n">
+        <v>16</v>
+      </c>
+      <c r="K769" t="n">
+        <v>16</v>
+      </c>
+      <c r="L769" t="n">
+        <v>0</v>
+      </c>
+      <c r="M769" t="n">
+        <v>0</v>
+      </c>
+      <c r="N769" t="n">
+        <v>16</v>
+      </c>
+      <c r="O769" t="n">
+        <v>16</v>
+      </c>
+      <c r="P769" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q769" t="n">
+        <v>0</v>
+      </c>
+      <c r="R769" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S769" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E770" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F770" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G770" t="n">
+        <v>1.966878288654823e-55</v>
+      </c>
+      <c r="H770" t="n">
+        <v>101</v>
+      </c>
+      <c r="I770" t="n">
+        <v>146</v>
+      </c>
+      <c r="J770" t="n">
+        <v>11</v>
+      </c>
+      <c r="K770" t="n">
+        <v>10</v>
+      </c>
+      <c r="L770" t="n">
+        <v>0</v>
+      </c>
+      <c r="M770" t="n">
+        <v>0</v>
+      </c>
+      <c r="N770" t="n">
+        <v>11</v>
+      </c>
+      <c r="O770" t="n">
+        <v>10</v>
+      </c>
+      <c r="P770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q770" t="n">
+        <v>0</v>
+      </c>
+      <c r="R770" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S770" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E771" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F771" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G771" t="n">
+        <v>9.672522591712851e-57</v>
+      </c>
+      <c r="H771" t="n">
+        <v>103</v>
+      </c>
+      <c r="I771" t="n">
+        <v>150</v>
+      </c>
+      <c r="J771" t="n">
+        <v>10</v>
+      </c>
+      <c r="K771" t="n">
+        <v>9</v>
+      </c>
+      <c r="L771" t="n">
+        <v>0</v>
+      </c>
+      <c r="M771" t="n">
+        <v>0</v>
+      </c>
+      <c r="N771" t="n">
+        <v>10</v>
+      </c>
+      <c r="O771" t="n">
+        <v>9</v>
+      </c>
+      <c r="P771" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q771" t="n">
+        <v>0</v>
+      </c>
+      <c r="R771" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S771" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F772" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G772" t="n">
+        <v>1.803798194331741e-53</v>
+      </c>
+      <c r="H772" t="n">
+        <v>111</v>
+      </c>
+      <c r="I772" t="n">
+        <v>127</v>
+      </c>
+      <c r="J772" t="n">
+        <v>11</v>
+      </c>
+      <c r="K772" t="n">
+        <v>10</v>
+      </c>
+      <c r="L772" t="n">
+        <v>0</v>
+      </c>
+      <c r="M772" t="n">
+        <v>0</v>
+      </c>
+      <c r="N772" t="n">
+        <v>11</v>
+      </c>
+      <c r="O772" t="n">
+        <v>10</v>
+      </c>
+      <c r="P772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q772" t="n">
+        <v>0</v>
+      </c>
+      <c r="R772" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S772" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F773" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G773" t="n">
+        <v>1.091709862127975e-53</v>
+      </c>
+      <c r="H773" t="n">
+        <v>111</v>
+      </c>
+      <c r="I773" t="n">
+        <v>128</v>
+      </c>
+      <c r="J773" t="n">
+        <v>10</v>
+      </c>
+      <c r="K773" t="n">
+        <v>9</v>
+      </c>
+      <c r="L773" t="n">
+        <v>0</v>
+      </c>
+      <c r="M773" t="n">
+        <v>0</v>
+      </c>
+      <c r="N773" t="n">
+        <v>10</v>
+      </c>
+      <c r="O773" t="n">
+        <v>9</v>
+      </c>
+      <c r="P773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q773" t="n">
+        <v>0</v>
+      </c>
+      <c r="R773" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S773" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F774" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G774" t="n">
+        <v>2.136047863554992e-38</v>
+      </c>
+      <c r="H774" t="n">
+        <v>21</v>
+      </c>
+      <c r="I774" t="n">
+        <v>148</v>
+      </c>
+      <c r="J774" t="n">
+        <v>17</v>
+      </c>
+      <c r="K774" t="n">
+        <v>19</v>
+      </c>
+      <c r="L774" t="n">
+        <v>0</v>
+      </c>
+      <c r="M774" t="n">
+        <v>0</v>
+      </c>
+      <c r="N774" t="n">
+        <v>17</v>
+      </c>
+      <c r="O774" t="n">
+        <v>19</v>
+      </c>
+      <c r="P774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q774" t="n">
+        <v>0</v>
+      </c>
+      <c r="R774" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S774" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F775" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G775" t="n">
+        <v>1</v>
+      </c>
+      <c r="H775" t="n">
+        <v>21</v>
+      </c>
+      <c r="I775" t="n">
+        <v>148</v>
+      </c>
+      <c r="J775" t="n">
+        <v>16</v>
+      </c>
+      <c r="K775" t="n">
+        <v>16</v>
+      </c>
+      <c r="L775" t="n">
+        <v>0</v>
+      </c>
+      <c r="M775" t="n">
+        <v>0</v>
+      </c>
+      <c r="N775" t="n">
+        <v>16</v>
+      </c>
+      <c r="O775" t="n">
+        <v>16</v>
+      </c>
+      <c r="P775" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q775" t="n">
+        <v>0</v>
+      </c>
+      <c r="R775" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S775" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E776" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F776" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G776" t="n">
+        <v>7.035014290409305e-88</v>
+      </c>
+      <c r="H776" t="n">
+        <v>26</v>
+      </c>
+      <c r="I776" t="n">
+        <v>370</v>
+      </c>
+      <c r="J776" t="n">
+        <v>17</v>
+      </c>
+      <c r="K776" t="n">
+        <v>19</v>
+      </c>
+      <c r="L776" t="n">
+        <v>0</v>
+      </c>
+      <c r="M776" t="n">
+        <v>0</v>
+      </c>
+      <c r="N776" t="n">
+        <v>17</v>
+      </c>
+      <c r="O776" t="n">
+        <v>19</v>
+      </c>
+      <c r="P776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q776" t="n">
+        <v>0</v>
+      </c>
+      <c r="R776" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S776" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E777" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F777" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G777" t="n">
+        <v>1</v>
+      </c>
+      <c r="H777" t="n">
+        <v>26</v>
+      </c>
+      <c r="I777" t="n">
+        <v>370</v>
+      </c>
+      <c r="J777" t="n">
+        <v>16</v>
+      </c>
+      <c r="K777" t="n">
+        <v>16</v>
+      </c>
+      <c r="L777" t="n">
+        <v>0</v>
+      </c>
+      <c r="M777" t="n">
+        <v>0</v>
+      </c>
+      <c r="N777" t="n">
+        <v>16</v>
+      </c>
+      <c r="O777" t="n">
+        <v>16</v>
+      </c>
+      <c r="P777" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q777" t="n">
+        <v>0</v>
+      </c>
+      <c r="R777" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S777" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E778" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F778" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G778" t="n">
+        <v>0.002699055330634279</v>
+      </c>
+      <c r="H778" t="n">
+        <v>37</v>
+      </c>
+      <c r="I778" t="n">
+        <v>2</v>
+      </c>
+      <c r="J778" t="n">
+        <v>20</v>
+      </c>
+      <c r="K778" t="n">
+        <v>13</v>
+      </c>
+      <c r="L778" t="n">
+        <v>0</v>
+      </c>
+      <c r="M778" t="n">
+        <v>0</v>
+      </c>
+      <c r="N778" t="n">
+        <v>20</v>
+      </c>
+      <c r="O778" t="n">
+        <v>13</v>
+      </c>
+      <c r="P778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q778" t="n">
+        <v>0</v>
+      </c>
+      <c r="R778" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S778" t="inlineStr">
+        <is>
+          <t>STR&gt;2Hz</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E779" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F779" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G779" t="n">
+        <v>4.823104651564957e-24</v>
+      </c>
+      <c r="H779" t="n">
+        <v>40</v>
+      </c>
+      <c r="I779" t="n">
+        <v>42</v>
+      </c>
+      <c r="J779" t="n">
+        <v>20</v>
+      </c>
+      <c r="K779" t="n">
+        <v>13</v>
+      </c>
+      <c r="L779" t="n">
+        <v>0</v>
+      </c>
+      <c r="M779" t="n">
+        <v>0</v>
+      </c>
+      <c r="N779" t="n">
+        <v>20</v>
+      </c>
+      <c r="O779" t="n">
+        <v>13</v>
+      </c>
+      <c r="P779" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q779" t="n">
+        <v>0</v>
+      </c>
+      <c r="R779" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S779" t="inlineStr">
+        <is>
+          <t>STR&gt;2Hz</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E780" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F780" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G780" t="n">
+        <v>1.193525448600369e-09</v>
+      </c>
+      <c r="H780" t="n">
+        <v>37</v>
+      </c>
+      <c r="I780" t="n">
+        <v>2</v>
+      </c>
+      <c r="J780" t="n">
+        <v>20</v>
+      </c>
+      <c r="K780" t="n">
+        <v>13</v>
+      </c>
+      <c r="L780" t="n">
+        <v>0</v>
+      </c>
+      <c r="M780" t="n">
+        <v>0</v>
+      </c>
+      <c r="N780" t="n">
+        <v>20</v>
+      </c>
+      <c r="O780" t="n">
+        <v>13</v>
+      </c>
+      <c r="P780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q780" t="n">
+        <v>0</v>
+      </c>
+      <c r="R780" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S780" t="inlineStr">
+        <is>
+          <t>STR&gt;2Hz</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F781" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G781" t="n">
+        <v>2.37001505964784e-19</v>
+      </c>
+      <c r="H781" t="n">
+        <v>40</v>
+      </c>
+      <c r="I781" t="n">
+        <v>42</v>
+      </c>
+      <c r="J781" t="n">
+        <v>20</v>
+      </c>
+      <c r="K781" t="n">
+        <v>13</v>
+      </c>
+      <c r="L781" t="n">
+        <v>0</v>
+      </c>
+      <c r="M781" t="n">
+        <v>0</v>
+      </c>
+      <c r="N781" t="n">
+        <v>20</v>
+      </c>
+      <c r="O781" t="n">
+        <v>13</v>
+      </c>
+      <c r="P781" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q781" t="n">
+        <v>0</v>
+      </c>
+      <c r="R781" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S781" t="inlineStr">
+        <is>
+          <t>STR&gt;2Hz</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E782" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F782" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G782" t="n">
+        <v>1</v>
+      </c>
+      <c r="H782" t="n">
+        <v>181</v>
+      </c>
+      <c r="I782" t="n">
+        <v>101</v>
+      </c>
+      <c r="J782" t="n">
+        <v>11</v>
+      </c>
+      <c r="K782" t="n">
+        <v>11</v>
+      </c>
+      <c r="L782" t="n">
+        <v>0</v>
+      </c>
+      <c r="M782" t="n">
+        <v>0</v>
+      </c>
+      <c r="N782" t="n">
+        <v>11</v>
+      </c>
+      <c r="O782" t="n">
+        <v>11</v>
+      </c>
+      <c r="P782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q782" t="n">
+        <v>0</v>
+      </c>
+      <c r="R782" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S782" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E783" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F783" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G783" t="n">
+        <v>4.305431634024459e-80</v>
+      </c>
+      <c r="H783" t="n">
+        <v>182</v>
+      </c>
+      <c r="I783" t="n">
+        <v>103</v>
+      </c>
+      <c r="J783" t="n">
+        <v>11</v>
+      </c>
+      <c r="K783" t="n">
+        <v>10</v>
+      </c>
+      <c r="L783" t="n">
+        <v>0</v>
+      </c>
+      <c r="M783" t="n">
+        <v>0</v>
+      </c>
+      <c r="N783" t="n">
+        <v>11</v>
+      </c>
+      <c r="O783" t="n">
+        <v>10</v>
+      </c>
+      <c r="P783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q783" t="n">
+        <v>0</v>
+      </c>
+      <c r="R783" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S783" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F784" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G784" t="n">
+        <v>1</v>
+      </c>
+      <c r="H784" t="n">
+        <v>104</v>
+      </c>
+      <c r="I784" t="n">
+        <v>111</v>
+      </c>
+      <c r="J784" t="n">
+        <v>11</v>
+      </c>
+      <c r="K784" t="n">
+        <v>11</v>
+      </c>
+      <c r="L784" t="n">
+        <v>0</v>
+      </c>
+      <c r="M784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N784" t="n">
+        <v>11</v>
+      </c>
+      <c r="O784" t="n">
+        <v>11</v>
+      </c>
+      <c r="P784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R784" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S784" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G785" t="n">
+        <v>3.805127063675643e-64</v>
+      </c>
+      <c r="H785" t="n">
+        <v>105</v>
+      </c>
+      <c r="I785" t="n">
+        <v>111</v>
+      </c>
+      <c r="J785" t="n">
+        <v>11</v>
+      </c>
+      <c r="K785" t="n">
+        <v>10</v>
+      </c>
+      <c r="L785" t="n">
+        <v>0</v>
+      </c>
+      <c r="M785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N785" t="n">
+        <v>11</v>
+      </c>
+      <c r="O785" t="n">
+        <v>10</v>
+      </c>
+      <c r="P785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R785" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S785" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E786" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F786" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G786" t="n">
+        <v>1.950440085201047e-29</v>
+      </c>
+      <c r="H786" t="n">
+        <v>198</v>
+      </c>
+      <c r="I786" t="n">
+        <v>21</v>
+      </c>
+      <c r="J786" t="n">
+        <v>21</v>
+      </c>
+      <c r="K786" t="n">
+        <v>17</v>
+      </c>
+      <c r="L786" t="n">
+        <v>0</v>
+      </c>
+      <c r="M786" t="n">
+        <v>0</v>
+      </c>
+      <c r="N786" t="n">
+        <v>21</v>
+      </c>
+      <c r="O786" t="n">
+        <v>17</v>
+      </c>
+      <c r="P786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q786" t="n">
+        <v>0</v>
+      </c>
+      <c r="R786" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S786" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E787" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F787" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G787" t="n">
+        <v>1</v>
+      </c>
+      <c r="H787" t="n">
+        <v>198</v>
+      </c>
+      <c r="I787" t="n">
+        <v>21</v>
+      </c>
+      <c r="J787" t="n">
+        <v>16</v>
+      </c>
+      <c r="K787" t="n">
+        <v>16</v>
+      </c>
+      <c r="L787" t="n">
+        <v>0</v>
+      </c>
+      <c r="M787" t="n">
+        <v>0</v>
+      </c>
+      <c r="N787" t="n">
+        <v>16</v>
+      </c>
+      <c r="O787" t="n">
+        <v>16</v>
+      </c>
+      <c r="P787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q787" t="n">
+        <v>0</v>
+      </c>
+      <c r="R787" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S787" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E788" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F788" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G788" t="n">
+        <v>7.085077123113138e-40</v>
+      </c>
+      <c r="H788" t="n">
+        <v>152</v>
+      </c>
+      <c r="I788" t="n">
+        <v>37</v>
+      </c>
+      <c r="J788" t="n">
+        <v>21</v>
+      </c>
+      <c r="K788" t="n">
+        <v>20</v>
+      </c>
+      <c r="L788" t="n">
+        <v>0</v>
+      </c>
+      <c r="M788" t="n">
+        <v>0</v>
+      </c>
+      <c r="N788" t="n">
+        <v>21</v>
+      </c>
+      <c r="O788" t="n">
+        <v>20</v>
+      </c>
+      <c r="P788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q788" t="n">
+        <v>0</v>
+      </c>
+      <c r="R788" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S788" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E789" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F789" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G789" t="n">
+        <v>1.794395941536882e-48</v>
+      </c>
+      <c r="H789" t="n">
+        <v>730</v>
+      </c>
+      <c r="I789" t="n">
+        <v>26</v>
+      </c>
+      <c r="J789" t="n">
+        <v>21</v>
+      </c>
+      <c r="K789" t="n">
+        <v>17</v>
+      </c>
+      <c r="L789" t="n">
+        <v>0</v>
+      </c>
+      <c r="M789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N789" t="n">
+        <v>21</v>
+      </c>
+      <c r="O789" t="n">
+        <v>17</v>
+      </c>
+      <c r="P789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q789" t="n">
+        <v>0</v>
+      </c>
+      <c r="R789" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S789" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E790" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F790" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G790" t="n">
+        <v>1</v>
+      </c>
+      <c r="H790" t="n">
+        <v>730</v>
+      </c>
+      <c r="I790" t="n">
+        <v>26</v>
+      </c>
+      <c r="J790" t="n">
+        <v>16</v>
+      </c>
+      <c r="K790" t="n">
+        <v>16</v>
+      </c>
+      <c r="L790" t="n">
+        <v>0</v>
+      </c>
+      <c r="M790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N790" t="n">
+        <v>16</v>
+      </c>
+      <c r="O790" t="n">
+        <v>16</v>
+      </c>
+      <c r="P790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q790" t="n">
+        <v>0</v>
+      </c>
+      <c r="R790" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S790" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E791" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F791" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G791" t="n">
+        <v>3.796437409886397e-46</v>
+      </c>
+      <c r="H791" t="n">
+        <v>199</v>
+      </c>
+      <c r="I791" t="n">
+        <v>40</v>
+      </c>
+      <c r="J791" t="n">
+        <v>21</v>
+      </c>
+      <c r="K791" t="n">
+        <v>20</v>
+      </c>
+      <c r="L791" t="n">
+        <v>0</v>
+      </c>
+      <c r="M791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N791" t="n">
+        <v>21</v>
+      </c>
+      <c r="O791" t="n">
+        <v>20</v>
+      </c>
+      <c r="P791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R791" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S791" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E792" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F792" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G792" t="n">
+        <v>1</v>
+      </c>
+      <c r="H792" t="n">
+        <v>181</v>
+      </c>
+      <c r="I792" t="n">
+        <v>101</v>
+      </c>
+      <c r="J792" t="n">
+        <v>11</v>
+      </c>
+      <c r="K792" t="n">
+        <v>11</v>
+      </c>
+      <c r="L792" t="n">
+        <v>0</v>
+      </c>
+      <c r="M792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N792" t="n">
+        <v>11</v>
+      </c>
+      <c r="O792" t="n">
+        <v>11</v>
+      </c>
+      <c r="P792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q792" t="n">
+        <v>0</v>
+      </c>
+      <c r="R792" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S792" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E793" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F793" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G793" t="n">
+        <v>1.024591710624459e-63</v>
+      </c>
+      <c r="H793" t="n">
+        <v>182</v>
+      </c>
+      <c r="I793" t="n">
+        <v>103</v>
+      </c>
+      <c r="J793" t="n">
+        <v>11</v>
+      </c>
+      <c r="K793" t="n">
+        <v>10</v>
+      </c>
+      <c r="L793" t="n">
+        <v>0</v>
+      </c>
+      <c r="M793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N793" t="n">
+        <v>11</v>
+      </c>
+      <c r="O793" t="n">
+        <v>10</v>
+      </c>
+      <c r="P793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q793" t="n">
+        <v>0</v>
+      </c>
+      <c r="R793" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S793" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E794" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F794" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G794" t="n">
+        <v>1</v>
+      </c>
+      <c r="H794" t="n">
+        <v>104</v>
+      </c>
+      <c r="I794" t="n">
+        <v>111</v>
+      </c>
+      <c r="J794" t="n">
+        <v>11</v>
+      </c>
+      <c r="K794" t="n">
+        <v>11</v>
+      </c>
+      <c r="L794" t="n">
+        <v>0</v>
+      </c>
+      <c r="M794" t="n">
+        <v>0</v>
+      </c>
+      <c r="N794" t="n">
+        <v>11</v>
+      </c>
+      <c r="O794" t="n">
+        <v>11</v>
+      </c>
+      <c r="P794" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q794" t="n">
+        <v>0</v>
+      </c>
+      <c r="R794" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S794" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F795" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G795" t="n">
+        <v>1.135311504612073e-48</v>
+      </c>
+      <c r="H795" t="n">
+        <v>105</v>
+      </c>
+      <c r="I795" t="n">
+        <v>111</v>
+      </c>
+      <c r="J795" t="n">
+        <v>11</v>
+      </c>
+      <c r="K795" t="n">
+        <v>10</v>
+      </c>
+      <c r="L795" t="n">
+        <v>0</v>
+      </c>
+      <c r="M795" t="n">
+        <v>0</v>
+      </c>
+      <c r="N795" t="n">
+        <v>11</v>
+      </c>
+      <c r="O795" t="n">
+        <v>10</v>
+      </c>
+      <c r="P795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q795" t="n">
+        <v>0</v>
+      </c>
+      <c r="R795" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S795" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E796" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F796" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G796" t="n">
+        <v>2.603238085180718e-49</v>
+      </c>
+      <c r="H796" t="n">
+        <v>198</v>
+      </c>
+      <c r="I796" t="n">
+        <v>21</v>
+      </c>
+      <c r="J796" t="n">
+        <v>21</v>
+      </c>
+      <c r="K796" t="n">
+        <v>17</v>
+      </c>
+      <c r="L796" t="n">
+        <v>0</v>
+      </c>
+      <c r="M796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N796" t="n">
+        <v>21</v>
+      </c>
+      <c r="O796" t="n">
+        <v>17</v>
+      </c>
+      <c r="P796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R796" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S796" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E797" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F797" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G797" t="n">
+        <v>1</v>
+      </c>
+      <c r="H797" t="n">
+        <v>198</v>
+      </c>
+      <c r="I797" t="n">
+        <v>21</v>
+      </c>
+      <c r="J797" t="n">
+        <v>16</v>
+      </c>
+      <c r="K797" t="n">
+        <v>16</v>
+      </c>
+      <c r="L797" t="n">
+        <v>0</v>
+      </c>
+      <c r="M797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N797" t="n">
+        <v>16</v>
+      </c>
+      <c r="O797" t="n">
+        <v>16</v>
+      </c>
+      <c r="P797" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q797" t="n">
+        <v>0</v>
+      </c>
+      <c r="R797" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S797" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E798" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F798" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G798" t="n">
+        <v>8.984470931621611e-43</v>
+      </c>
+      <c r="H798" t="n">
+        <v>152</v>
+      </c>
+      <c r="I798" t="n">
+        <v>37</v>
+      </c>
+      <c r="J798" t="n">
+        <v>21</v>
+      </c>
+      <c r="K798" t="n">
+        <v>20</v>
+      </c>
+      <c r="L798" t="n">
+        <v>0</v>
+      </c>
+      <c r="M798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N798" t="n">
+        <v>21</v>
+      </c>
+      <c r="O798" t="n">
+        <v>20</v>
+      </c>
+      <c r="P798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R798" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S798" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E799" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F799" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G799" t="n">
+        <v>3.416051254649816e-166</v>
+      </c>
+      <c r="H799" t="n">
+        <v>730</v>
+      </c>
+      <c r="I799" t="n">
+        <v>26</v>
+      </c>
+      <c r="J799" t="n">
+        <v>21</v>
+      </c>
+      <c r="K799" t="n">
+        <v>17</v>
+      </c>
+      <c r="L799" t="n">
+        <v>0</v>
+      </c>
+      <c r="M799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N799" t="n">
+        <v>21</v>
+      </c>
+      <c r="O799" t="n">
+        <v>17</v>
+      </c>
+      <c r="P799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R799" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S799" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E800" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F800" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G800" t="n">
+        <v>1</v>
+      </c>
+      <c r="H800" t="n">
+        <v>730</v>
+      </c>
+      <c r="I800" t="n">
+        <v>26</v>
+      </c>
+      <c r="J800" t="n">
+        <v>16</v>
+      </c>
+      <c r="K800" t="n">
+        <v>16</v>
+      </c>
+      <c r="L800" t="n">
+        <v>0</v>
+      </c>
+      <c r="M800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N800" t="n">
+        <v>16</v>
+      </c>
+      <c r="O800" t="n">
+        <v>16</v>
+      </c>
+      <c r="P800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q800" t="n">
+        <v>0</v>
+      </c>
+      <c r="R800" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S800" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E801" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F801" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G801" t="n">
+        <v>1.106218039972715e-53</v>
+      </c>
+      <c r="H801" t="n">
+        <v>199</v>
+      </c>
+      <c r="I801" t="n">
+        <v>40</v>
+      </c>
+      <c r="J801" t="n">
+        <v>21</v>
+      </c>
+      <c r="K801" t="n">
+        <v>20</v>
+      </c>
+      <c r="L801" t="n">
+        <v>0</v>
+      </c>
+      <c r="M801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N801" t="n">
+        <v>21</v>
+      </c>
+      <c r="O801" t="n">
+        <v>20</v>
+      </c>
+      <c r="P801" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q801" t="n">
+        <v>0</v>
+      </c>
+      <c r="R801" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S801" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E802" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F802" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G802" t="n">
+        <v>1.077513708578955e-96</v>
+      </c>
+      <c r="H802" t="n">
+        <v>181</v>
+      </c>
+      <c r="I802" t="n">
+        <v>146</v>
+      </c>
+      <c r="J802" t="n">
+        <v>11</v>
+      </c>
+      <c r="K802" t="n">
+        <v>10</v>
+      </c>
+      <c r="L802" t="n">
+        <v>0</v>
+      </c>
+      <c r="M802" t="n">
+        <v>0</v>
+      </c>
+      <c r="N802" t="n">
+        <v>11</v>
+      </c>
+      <c r="O802" t="n">
+        <v>10</v>
+      </c>
+      <c r="P802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q802" t="n">
+        <v>0</v>
+      </c>
+      <c r="R802" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S802" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E803" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F803" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G803" t="n">
+        <v>2.436694094297256e-98</v>
+      </c>
+      <c r="H803" t="n">
+        <v>182</v>
+      </c>
+      <c r="I803" t="n">
+        <v>150</v>
+      </c>
+      <c r="J803" t="n">
+        <v>11</v>
+      </c>
+      <c r="K803" t="n">
+        <v>10</v>
+      </c>
+      <c r="L803" t="n">
+        <v>0</v>
+      </c>
+      <c r="M803" t="n">
+        <v>0</v>
+      </c>
+      <c r="N803" t="n">
+        <v>11</v>
+      </c>
+      <c r="O803" t="n">
+        <v>10</v>
+      </c>
+      <c r="P803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q803" t="n">
+        <v>0</v>
+      </c>
+      <c r="R803" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S803" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E804" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F804" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G804" t="n">
+        <v>3.46243199669811e-68</v>
+      </c>
+      <c r="H804" t="n">
+        <v>104</v>
+      </c>
+      <c r="I804" t="n">
+        <v>127</v>
+      </c>
+      <c r="J804" t="n">
+        <v>11</v>
+      </c>
+      <c r="K804" t="n">
+        <v>10</v>
+      </c>
+      <c r="L804" t="n">
+        <v>0</v>
+      </c>
+      <c r="M804" t="n">
+        <v>0</v>
+      </c>
+      <c r="N804" t="n">
+        <v>11</v>
+      </c>
+      <c r="O804" t="n">
+        <v>10</v>
+      </c>
+      <c r="P804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q804" t="n">
+        <v>0</v>
+      </c>
+      <c r="R804" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S804" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E805" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F805" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G805" t="n">
+        <v>8.608681004074042e-69</v>
+      </c>
+      <c r="H805" t="n">
+        <v>105</v>
+      </c>
+      <c r="I805" t="n">
+        <v>128</v>
+      </c>
+      <c r="J805" t="n">
+        <v>11</v>
+      </c>
+      <c r="K805" t="n">
+        <v>10</v>
+      </c>
+      <c r="L805" t="n">
+        <v>0</v>
+      </c>
+      <c r="M805" t="n">
+        <v>0</v>
+      </c>
+      <c r="N805" t="n">
+        <v>11</v>
+      </c>
+      <c r="O805" t="n">
+        <v>10</v>
+      </c>
+      <c r="P805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q805" t="n">
+        <v>0</v>
+      </c>
+      <c r="R805" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S805" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E806" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F806" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G806" t="n">
+        <v>1.209147885965852e-101</v>
+      </c>
+      <c r="H806" t="n">
+        <v>198</v>
+      </c>
+      <c r="I806" t="n">
+        <v>148</v>
+      </c>
+      <c r="J806" t="n">
+        <v>21</v>
+      </c>
+      <c r="K806" t="n">
+        <v>19</v>
+      </c>
+      <c r="L806" t="n">
+        <v>0</v>
+      </c>
+      <c r="M806" t="n">
+        <v>0</v>
+      </c>
+      <c r="N806" t="n">
+        <v>21</v>
+      </c>
+      <c r="O806" t="n">
+        <v>19</v>
+      </c>
+      <c r="P806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q806" t="n">
+        <v>0</v>
+      </c>
+      <c r="R806" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S806" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E807" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F807" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G807" t="n">
+        <v>1</v>
+      </c>
+      <c r="H807" t="n">
+        <v>198</v>
+      </c>
+      <c r="I807" t="n">
+        <v>148</v>
+      </c>
+      <c r="J807" t="n">
+        <v>16</v>
+      </c>
+      <c r="K807" t="n">
+        <v>16</v>
+      </c>
+      <c r="L807" t="n">
+        <v>0</v>
+      </c>
+      <c r="M807" t="n">
+        <v>0</v>
+      </c>
+      <c r="N807" t="n">
+        <v>16</v>
+      </c>
+      <c r="O807" t="n">
+        <v>16</v>
+      </c>
+      <c r="P807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q807" t="n">
+        <v>0</v>
+      </c>
+      <c r="R807" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S807" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F808" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G808" t="n">
+        <v>6.663041035828734e-304</v>
+      </c>
+      <c r="H808" t="n">
+        <v>730</v>
+      </c>
+      <c r="I808" t="n">
+        <v>370</v>
+      </c>
+      <c r="J808" t="n">
+        <v>21</v>
+      </c>
+      <c r="K808" t="n">
+        <v>19</v>
+      </c>
+      <c r="L808" t="n">
+        <v>0</v>
+      </c>
+      <c r="M808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N808" t="n">
+        <v>21</v>
+      </c>
+      <c r="O808" t="n">
+        <v>19</v>
+      </c>
+      <c r="P808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q808" t="n">
+        <v>0</v>
+      </c>
+      <c r="R808" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S808" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F809" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G809" t="n">
+        <v>1</v>
+      </c>
+      <c r="H809" t="n">
+        <v>730</v>
+      </c>
+      <c r="I809" t="n">
+        <v>370</v>
+      </c>
+      <c r="J809" t="n">
+        <v>16</v>
+      </c>
+      <c r="K809" t="n">
+        <v>16</v>
+      </c>
+      <c r="L809" t="n">
+        <v>0</v>
+      </c>
+      <c r="M809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N809" t="n">
+        <v>16</v>
+      </c>
+      <c r="O809" t="n">
+        <v>16</v>
+      </c>
+      <c r="P809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R809" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S809" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E810" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F810" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G810" t="n">
+        <v>7.234065235641493e-73</v>
+      </c>
+      <c r="H810" t="n">
+        <v>181</v>
+      </c>
+      <c r="I810" t="n">
+        <v>146</v>
+      </c>
+      <c r="J810" t="n">
+        <v>11</v>
+      </c>
+      <c r="K810" t="n">
+        <v>10</v>
+      </c>
+      <c r="L810" t="n">
+        <v>0</v>
+      </c>
+      <c r="M810" t="n">
+        <v>0</v>
+      </c>
+      <c r="N810" t="n">
+        <v>11</v>
+      </c>
+      <c r="O810" t="n">
+        <v>10</v>
+      </c>
+      <c r="P810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q810" t="n">
+        <v>0</v>
+      </c>
+      <c r="R810" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S810" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F811" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G811" t="n">
+        <v>5.892076082057369e-74</v>
+      </c>
+      <c r="H811" t="n">
+        <v>182</v>
+      </c>
+      <c r="I811" t="n">
+        <v>150</v>
+      </c>
+      <c r="J811" t="n">
+        <v>11</v>
+      </c>
+      <c r="K811" t="n">
+        <v>10</v>
+      </c>
+      <c r="L811" t="n">
+        <v>0</v>
+      </c>
+      <c r="M811" t="n">
+        <v>0</v>
+      </c>
+      <c r="N811" t="n">
+        <v>11</v>
+      </c>
+      <c r="O811" t="n">
+        <v>10</v>
+      </c>
+      <c r="P811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q811" t="n">
+        <v>0</v>
+      </c>
+      <c r="R811" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S811" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E812" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F812" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G812" t="n">
+        <v>6.066491173716673e-52</v>
+      </c>
+      <c r="H812" t="n">
+        <v>104</v>
+      </c>
+      <c r="I812" t="n">
+        <v>127</v>
+      </c>
+      <c r="J812" t="n">
+        <v>11</v>
+      </c>
+      <c r="K812" t="n">
+        <v>10</v>
+      </c>
+      <c r="L812" t="n">
+        <v>0</v>
+      </c>
+      <c r="M812" t="n">
+        <v>0</v>
+      </c>
+      <c r="N812" t="n">
+        <v>11</v>
+      </c>
+      <c r="O812" t="n">
+        <v>10</v>
+      </c>
+      <c r="P812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q812" t="n">
+        <v>0</v>
+      </c>
+      <c r="R812" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S812" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E813" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F813" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G813" t="n">
+        <v>2.221838449787052e-52</v>
+      </c>
+      <c r="H813" t="n">
+        <v>105</v>
+      </c>
+      <c r="I813" t="n">
+        <v>128</v>
+      </c>
+      <c r="J813" t="n">
+        <v>11</v>
+      </c>
+      <c r="K813" t="n">
+        <v>10</v>
+      </c>
+      <c r="L813" t="n">
+        <v>0</v>
+      </c>
+      <c r="M813" t="n">
+        <v>0</v>
+      </c>
+      <c r="N813" t="n">
+        <v>11</v>
+      </c>
+      <c r="O813" t="n">
+        <v>10</v>
+      </c>
+      <c r="P813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q813" t="n">
+        <v>0</v>
+      </c>
+      <c r="R813" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S813" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F814" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G814" t="n">
+        <v>5.261507722047764e-77</v>
+      </c>
+      <c r="H814" t="n">
+        <v>198</v>
+      </c>
+      <c r="I814" t="n">
+        <v>148</v>
+      </c>
+      <c r="J814" t="n">
+        <v>21</v>
+      </c>
+      <c r="K814" t="n">
+        <v>19</v>
+      </c>
+      <c r="L814" t="n">
+        <v>0</v>
+      </c>
+      <c r="M814" t="n">
+        <v>0</v>
+      </c>
+      <c r="N814" t="n">
+        <v>21</v>
+      </c>
+      <c r="O814" t="n">
+        <v>19</v>
+      </c>
+      <c r="P814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q814" t="n">
+        <v>0</v>
+      </c>
+      <c r="R814" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S814" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E815" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F815" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G815" t="n">
+        <v>1</v>
+      </c>
+      <c r="H815" t="n">
+        <v>198</v>
+      </c>
+      <c r="I815" t="n">
+        <v>148</v>
+      </c>
+      <c r="J815" t="n">
+        <v>16</v>
+      </c>
+      <c r="K815" t="n">
+        <v>16</v>
+      </c>
+      <c r="L815" t="n">
+        <v>0</v>
+      </c>
+      <c r="M815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N815" t="n">
+        <v>16</v>
+      </c>
+      <c r="O815" t="n">
+        <v>16</v>
+      </c>
+      <c r="P815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R815" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S815" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E816" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F816" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G816" t="n">
+        <v>5.470132153004623e-241</v>
+      </c>
+      <c r="H816" t="n">
+        <v>730</v>
+      </c>
+      <c r="I816" t="n">
+        <v>370</v>
+      </c>
+      <c r="J816" t="n">
+        <v>21</v>
+      </c>
+      <c r="K816" t="n">
+        <v>19</v>
+      </c>
+      <c r="L816" t="n">
+        <v>0</v>
+      </c>
+      <c r="M816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N816" t="n">
+        <v>21</v>
+      </c>
+      <c r="O816" t="n">
+        <v>19</v>
+      </c>
+      <c r="P816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R816" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S816" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E817" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F817" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G817" t="n">
+        <v>1</v>
+      </c>
+      <c r="H817" t="n">
+        <v>730</v>
+      </c>
+      <c r="I817" t="n">
+        <v>370</v>
+      </c>
+      <c r="J817" t="n">
+        <v>16</v>
+      </c>
+      <c r="K817" t="n">
+        <v>16</v>
+      </c>
+      <c r="L817" t="n">
+        <v>0</v>
+      </c>
+      <c r="M817" t="n">
+        <v>0</v>
+      </c>
+      <c r="N817" t="n">
+        <v>16</v>
+      </c>
+      <c r="O817" t="n">
+        <v>16</v>
+      </c>
+      <c r="P817" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q817" t="n">
+        <v>0</v>
+      </c>
+      <c r="R817" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S817" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E818" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F818" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G818" t="n">
+        <v>0.0001697648756472285</v>
+      </c>
+      <c r="H818" t="n">
+        <v>152</v>
+      </c>
+      <c r="I818" t="n">
+        <v>2</v>
+      </c>
+      <c r="J818" t="n">
+        <v>21</v>
+      </c>
+      <c r="K818" t="n">
+        <v>13</v>
+      </c>
+      <c r="L818" t="n">
+        <v>0</v>
+      </c>
+      <c r="M818" t="n">
+        <v>0</v>
+      </c>
+      <c r="N818" t="n">
+        <v>21</v>
+      </c>
+      <c r="O818" t="n">
+        <v>13</v>
+      </c>
+      <c r="P818" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q818" t="n">
+        <v>0</v>
+      </c>
+      <c r="R818" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S818" t="inlineStr">
+        <is>
+          <t>STR&gt;2Hz</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E819" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F819" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G819" t="n">
+        <v>1.130267154188169e-47</v>
+      </c>
+      <c r="H819" t="n">
+        <v>199</v>
+      </c>
+      <c r="I819" t="n">
+        <v>42</v>
+      </c>
+      <c r="J819" t="n">
+        <v>21</v>
+      </c>
+      <c r="K819" t="n">
+        <v>13</v>
+      </c>
+      <c r="L819" t="n">
+        <v>0</v>
+      </c>
+      <c r="M819" t="n">
+        <v>0</v>
+      </c>
+      <c r="N819" t="n">
+        <v>21</v>
+      </c>
+      <c r="O819" t="n">
+        <v>13</v>
+      </c>
+      <c r="P819" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q819" t="n">
+        <v>0</v>
+      </c>
+      <c r="R819" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S819" t="inlineStr">
+        <is>
+          <t>STR&gt;2Hz</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E820" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F820" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G820" t="n">
+        <v>6.351876168502541e-35</v>
+      </c>
+      <c r="H820" t="n">
+        <v>152</v>
+      </c>
+      <c r="I820" t="n">
+        <v>2</v>
+      </c>
+      <c r="J820" t="n">
+        <v>21</v>
+      </c>
+      <c r="K820" t="n">
+        <v>13</v>
+      </c>
+      <c r="L820" t="n">
+        <v>0</v>
+      </c>
+      <c r="M820" t="n">
+        <v>0</v>
+      </c>
+      <c r="N820" t="n">
+        <v>21</v>
+      </c>
+      <c r="O820" t="n">
+        <v>13</v>
+      </c>
+      <c r="P820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q820" t="n">
+        <v>0</v>
+      </c>
+      <c r="R820" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S820" t="inlineStr">
+        <is>
+          <t>STR&gt;2Hz</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E821" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F821" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G821" t="n">
+        <v>4.047874945669423e-54</v>
+      </c>
+      <c r="H821" t="n">
+        <v>199</v>
+      </c>
+      <c r="I821" t="n">
+        <v>42</v>
+      </c>
+      <c r="J821" t="n">
+        <v>21</v>
+      </c>
+      <c r="K821" t="n">
+        <v>13</v>
+      </c>
+      <c r="L821" t="n">
+        <v>0</v>
+      </c>
+      <c r="M821" t="n">
+        <v>0</v>
+      </c>
+      <c r="N821" t="n">
+        <v>21</v>
+      </c>
+      <c r="O821" t="n">
+        <v>13</v>
+      </c>
+      <c r="P821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q821" t="n">
+        <v>0</v>
+      </c>
+      <c r="R821" t="inlineStr">
+        <is>
+          <t>GPe</t>
+        </is>
+      </c>
+      <c r="S821" t="inlineStr">
+        <is>
+          <t>STR&gt;2Hz</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E822" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F822" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G822" t="n">
+        <v>1.057782794356823e-71</v>
+      </c>
+      <c r="H822" t="n">
+        <v>101</v>
+      </c>
+      <c r="I822" t="n">
+        <v>146</v>
+      </c>
+      <c r="J822" t="n">
+        <v>11</v>
+      </c>
+      <c r="K822" t="n">
+        <v>10</v>
+      </c>
+      <c r="L822" t="n">
+        <v>0</v>
+      </c>
+      <c r="M822" t="n">
+        <v>0</v>
+      </c>
+      <c r="N822" t="n">
+        <v>11</v>
+      </c>
+      <c r="O822" t="n">
+        <v>10</v>
+      </c>
+      <c r="P822" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q822" t="n">
+        <v>0</v>
+      </c>
+      <c r="R822" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S822" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E823" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F823" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G823" t="n">
+        <v>1</v>
+      </c>
+      <c r="H823" t="n">
+        <v>103</v>
+      </c>
+      <c r="I823" t="n">
+        <v>150</v>
+      </c>
+      <c r="J823" t="n">
+        <v>10</v>
+      </c>
+      <c r="K823" t="n">
+        <v>10</v>
+      </c>
+      <c r="L823" t="n">
+        <v>0</v>
+      </c>
+      <c r="M823" t="n">
+        <v>0</v>
+      </c>
+      <c r="N823" t="n">
+        <v>10</v>
+      </c>
+      <c r="O823" t="n">
+        <v>10</v>
+      </c>
+      <c r="P823" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q823" t="n">
+        <v>0</v>
+      </c>
+      <c r="R823" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S823" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E824" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F824" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G824" t="n">
+        <v>1.497825362696227e-70</v>
+      </c>
+      <c r="H824" t="n">
+        <v>111</v>
+      </c>
+      <c r="I824" t="n">
+        <v>127</v>
+      </c>
+      <c r="J824" t="n">
+        <v>11</v>
+      </c>
+      <c r="K824" t="n">
+        <v>10</v>
+      </c>
+      <c r="L824" t="n">
+        <v>0</v>
+      </c>
+      <c r="M824" t="n">
+        <v>0</v>
+      </c>
+      <c r="N824" t="n">
+        <v>11</v>
+      </c>
+      <c r="O824" t="n">
+        <v>10</v>
+      </c>
+      <c r="P824" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q824" t="n">
+        <v>0</v>
+      </c>
+      <c r="R824" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S824" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E825" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F825" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G825" t="n">
+        <v>1</v>
+      </c>
+      <c r="H825" t="n">
+        <v>111</v>
+      </c>
+      <c r="I825" t="n">
+        <v>128</v>
+      </c>
+      <c r="J825" t="n">
+        <v>10</v>
+      </c>
+      <c r="K825" t="n">
+        <v>10</v>
+      </c>
+      <c r="L825" t="n">
+        <v>0</v>
+      </c>
+      <c r="M825" t="n">
+        <v>0</v>
+      </c>
+      <c r="N825" t="n">
+        <v>10</v>
+      </c>
+      <c r="O825" t="n">
+        <v>10</v>
+      </c>
+      <c r="P825" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q825" t="n">
+        <v>0</v>
+      </c>
+      <c r="R825" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S825" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E826" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F826" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G826" t="n">
+        <v>6.118665581560958e-27</v>
+      </c>
+      <c r="H826" t="n">
+        <v>21</v>
+      </c>
+      <c r="I826" t="n">
+        <v>148</v>
+      </c>
+      <c r="J826" t="n">
+        <v>17</v>
+      </c>
+      <c r="K826" t="n">
+        <v>19</v>
+      </c>
+      <c r="L826" t="n">
+        <v>0</v>
+      </c>
+      <c r="M826" t="n">
+        <v>0</v>
+      </c>
+      <c r="N826" t="n">
+        <v>17</v>
+      </c>
+      <c r="O826" t="n">
+        <v>19</v>
+      </c>
+      <c r="P826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q826" t="n">
+        <v>0</v>
+      </c>
+      <c r="R826" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S826" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E827" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F827" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G827" t="n">
+        <v>1</v>
+      </c>
+      <c r="H827" t="n">
+        <v>21</v>
+      </c>
+      <c r="I827" t="n">
+        <v>148</v>
+      </c>
+      <c r="J827" t="n">
+        <v>16</v>
+      </c>
+      <c r="K827" t="n">
+        <v>16</v>
+      </c>
+      <c r="L827" t="n">
+        <v>0</v>
+      </c>
+      <c r="M827" t="n">
+        <v>0</v>
+      </c>
+      <c r="N827" t="n">
+        <v>16</v>
+      </c>
+      <c r="O827" t="n">
+        <v>16</v>
+      </c>
+      <c r="P827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q827" t="n">
+        <v>0</v>
+      </c>
+      <c r="R827" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S827" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E828" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F828" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G828" t="n">
+        <v>5.381576539885046e-41</v>
+      </c>
+      <c r="H828" t="n">
+        <v>26</v>
+      </c>
+      <c r="I828" t="n">
+        <v>370</v>
+      </c>
+      <c r="J828" t="n">
+        <v>17</v>
+      </c>
+      <c r="K828" t="n">
+        <v>19</v>
+      </c>
+      <c r="L828" t="n">
+        <v>0</v>
+      </c>
+      <c r="M828" t="n">
+        <v>0</v>
+      </c>
+      <c r="N828" t="n">
+        <v>17</v>
+      </c>
+      <c r="O828" t="n">
+        <v>19</v>
+      </c>
+      <c r="P828" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q828" t="n">
+        <v>0</v>
+      </c>
+      <c r="R828" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S828" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E829" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F829" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G829" t="n">
+        <v>1</v>
+      </c>
+      <c r="H829" t="n">
+        <v>26</v>
+      </c>
+      <c r="I829" t="n">
+        <v>370</v>
+      </c>
+      <c r="J829" t="n">
+        <v>16</v>
+      </c>
+      <c r="K829" t="n">
+        <v>16</v>
+      </c>
+      <c r="L829" t="n">
+        <v>0</v>
+      </c>
+      <c r="M829" t="n">
+        <v>0</v>
+      </c>
+      <c r="N829" t="n">
+        <v>16</v>
+      </c>
+      <c r="O829" t="n">
+        <v>16</v>
+      </c>
+      <c r="P829" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q829" t="n">
+        <v>0</v>
+      </c>
+      <c r="R829" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S829" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E830" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F830" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G830" t="n">
+        <v>1.966878288654823e-55</v>
+      </c>
+      <c r="H830" t="n">
+        <v>101</v>
+      </c>
+      <c r="I830" t="n">
+        <v>146</v>
+      </c>
+      <c r="J830" t="n">
+        <v>11</v>
+      </c>
+      <c r="K830" t="n">
+        <v>10</v>
+      </c>
+      <c r="L830" t="n">
+        <v>0</v>
+      </c>
+      <c r="M830" t="n">
+        <v>0</v>
+      </c>
+      <c r="N830" t="n">
+        <v>11</v>
+      </c>
+      <c r="O830" t="n">
+        <v>10</v>
+      </c>
+      <c r="P830" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q830" t="n">
+        <v>0</v>
+      </c>
+      <c r="R830" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S830" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E831" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F831" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G831" t="n">
+        <v>1</v>
+      </c>
+      <c r="H831" t="n">
+        <v>103</v>
+      </c>
+      <c r="I831" t="n">
+        <v>150</v>
+      </c>
+      <c r="J831" t="n">
+        <v>10</v>
+      </c>
+      <c r="K831" t="n">
+        <v>10</v>
+      </c>
+      <c r="L831" t="n">
+        <v>0</v>
+      </c>
+      <c r="M831" t="n">
+        <v>0</v>
+      </c>
+      <c r="N831" t="n">
+        <v>10</v>
+      </c>
+      <c r="O831" t="n">
+        <v>10</v>
+      </c>
+      <c r="P831" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q831" t="n">
+        <v>0</v>
+      </c>
+      <c r="R831" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S831" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E832" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F832" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G832" t="n">
+        <v>1.803798194331741e-53</v>
+      </c>
+      <c r="H832" t="n">
+        <v>111</v>
+      </c>
+      <c r="I832" t="n">
+        <v>127</v>
+      </c>
+      <c r="J832" t="n">
+        <v>11</v>
+      </c>
+      <c r="K832" t="n">
+        <v>10</v>
+      </c>
+      <c r="L832" t="n">
+        <v>0</v>
+      </c>
+      <c r="M832" t="n">
+        <v>0</v>
+      </c>
+      <c r="N832" t="n">
+        <v>11</v>
+      </c>
+      <c r="O832" t="n">
+        <v>10</v>
+      </c>
+      <c r="P832" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q832" t="n">
+        <v>0</v>
+      </c>
+      <c r="R832" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S832" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>Monkey</t>
+        </is>
+      </c>
+      <c r="E833" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F833" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G833" t="n">
+        <v>1</v>
+      </c>
+      <c r="H833" t="n">
+        <v>111</v>
+      </c>
+      <c r="I833" t="n">
+        <v>128</v>
+      </c>
+      <c r="J833" t="n">
+        <v>10</v>
+      </c>
+      <c r="K833" t="n">
+        <v>10</v>
+      </c>
+      <c r="L833" t="n">
+        <v>0</v>
+      </c>
+      <c r="M833" t="n">
+        <v>0</v>
+      </c>
+      <c r="N833" t="n">
+        <v>10</v>
+      </c>
+      <c r="O833" t="n">
+        <v>10</v>
+      </c>
+      <c r="P833" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q833" t="n">
+        <v>0</v>
+      </c>
+      <c r="R833" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S833" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E834" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F834" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G834" t="n">
+        <v>2.136047863554992e-38</v>
+      </c>
+      <c r="H834" t="n">
+        <v>21</v>
+      </c>
+      <c r="I834" t="n">
+        <v>148</v>
+      </c>
+      <c r="J834" t="n">
+        <v>17</v>
+      </c>
+      <c r="K834" t="n">
+        <v>19</v>
+      </c>
+      <c r="L834" t="n">
+        <v>0</v>
+      </c>
+      <c r="M834" t="n">
+        <v>0</v>
+      </c>
+      <c r="N834" t="n">
+        <v>17</v>
+      </c>
+      <c r="O834" t="n">
+        <v>19</v>
+      </c>
+      <c r="P834" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q834" t="n">
+        <v>0</v>
+      </c>
+      <c r="R834" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S834" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E835" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F835" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G835" t="n">
+        <v>1</v>
+      </c>
+      <c r="H835" t="n">
+        <v>21</v>
+      </c>
+      <c r="I835" t="n">
+        <v>148</v>
+      </c>
+      <c r="J835" t="n">
+        <v>16</v>
+      </c>
+      <c r="K835" t="n">
+        <v>16</v>
+      </c>
+      <c r="L835" t="n">
+        <v>0</v>
+      </c>
+      <c r="M835" t="n">
+        <v>0</v>
+      </c>
+      <c r="N835" t="n">
+        <v>16</v>
+      </c>
+      <c r="O835" t="n">
+        <v>16</v>
+      </c>
+      <c r="P835" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q835" t="n">
+        <v>0</v>
+      </c>
+      <c r="R835" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S835" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E836" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F836" t="inlineStr">
+        <is>
+          <t>bua</t>
+        </is>
+      </c>
+      <c r="G836" t="n">
+        <v>7.035014290409305e-88</v>
+      </c>
+      <c r="H836" t="n">
+        <v>26</v>
+      </c>
+      <c r="I836" t="n">
+        <v>370</v>
+      </c>
+      <c r="J836" t="n">
+        <v>17</v>
+      </c>
+      <c r="K836" t="n">
+        <v>19</v>
+      </c>
+      <c r="L836" t="n">
+        <v>0</v>
+      </c>
+      <c r="M836" t="n">
+        <v>0</v>
+      </c>
+      <c r="N836" t="n">
+        <v>17</v>
+      </c>
+      <c r="O836" t="n">
+        <v>19</v>
+      </c>
+      <c r="P836" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q836" t="n">
+        <v>0</v>
+      </c>
+      <c r="R836" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S836" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E837" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F837" t="inlineStr">
+        <is>
+          <t>lfp</t>
+        </is>
+      </c>
+      <c r="G837" t="n">
+        <v>1</v>
+      </c>
+      <c r="H837" t="n">
+        <v>26</v>
+      </c>
+      <c r="I837" t="n">
+        <v>370</v>
+      </c>
+      <c r="J837" t="n">
+        <v>16</v>
+      </c>
+      <c r="K837" t="n">
+        <v>16</v>
+      </c>
+      <c r="L837" t="n">
+        <v>0</v>
+      </c>
+      <c r="M837" t="n">
+        <v>0</v>
+      </c>
+      <c r="N837" t="n">
+        <v>16</v>
+      </c>
+      <c r="O837" t="n">
+        <v>16</v>
+      </c>
+      <c r="P837" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q837" t="n">
+        <v>0</v>
+      </c>
+      <c r="R837" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S837" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E838" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F838" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G838" t="n">
+        <v>0.002699055330634279</v>
+      </c>
+      <c r="H838" t="n">
+        <v>37</v>
+      </c>
+      <c r="I838" t="n">
+        <v>2</v>
+      </c>
+      <c r="J838" t="n">
+        <v>20</v>
+      </c>
+      <c r="K838" t="n">
+        <v>13</v>
+      </c>
+      <c r="L838" t="n">
+        <v>0</v>
+      </c>
+      <c r="M838" t="n">
+        <v>0</v>
+      </c>
+      <c r="N838" t="n">
+        <v>20</v>
+      </c>
+      <c r="O838" t="n">
+        <v>13</v>
+      </c>
+      <c r="P838" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q838" t="n">
+        <v>0</v>
+      </c>
+      <c r="R838" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S838" t="inlineStr">
+        <is>
+          <t>STR&gt;2Hz</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>ks</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E839" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F839" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G839" t="n">
+        <v>4.823104651564957e-24</v>
+      </c>
+      <c r="H839" t="n">
+        <v>40</v>
+      </c>
+      <c r="I839" t="n">
+        <v>42</v>
+      </c>
+      <c r="J839" t="n">
+        <v>20</v>
+      </c>
+      <c r="K839" t="n">
+        <v>13</v>
+      </c>
+      <c r="L839" t="n">
+        <v>0</v>
+      </c>
+      <c r="M839" t="n">
+        <v>0</v>
+      </c>
+      <c r="N839" t="n">
+        <v>20</v>
+      </c>
+      <c r="O839" t="n">
+        <v>13</v>
+      </c>
+      <c r="P839" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q839" t="n">
+        <v>0</v>
+      </c>
+      <c r="R839" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S839" t="inlineStr">
+        <is>
+          <t>STR&gt;2Hz</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E840" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F840" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G840" t="n">
+        <v>1.193525448600369e-09</v>
+      </c>
+      <c r="H840" t="n">
+        <v>37</v>
+      </c>
+      <c r="I840" t="n">
+        <v>2</v>
+      </c>
+      <c r="J840" t="n">
+        <v>20</v>
+      </c>
+      <c r="K840" t="n">
+        <v>13</v>
+      </c>
+      <c r="L840" t="n">
+        <v>0</v>
+      </c>
+      <c r="M840" t="n">
+        <v>0</v>
+      </c>
+      <c r="N840" t="n">
+        <v>20</v>
+      </c>
+      <c r="O840" t="n">
+        <v>13</v>
+      </c>
+      <c r="P840" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q840" t="n">
+        <v>0</v>
+      </c>
+      <c r="R840" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S840" t="inlineStr">
+        <is>
+          <t>STR&gt;2Hz</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>max_f_grp</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>interp(8, 35)</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E841" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="F841" t="inlineStr">
+        <is>
+          <t>neuron</t>
+        </is>
+      </c>
+      <c r="G841" t="n">
+        <v>2.37001505964784e-19</v>
+      </c>
+      <c r="H841" t="n">
+        <v>40</v>
+      </c>
+      <c r="I841" t="n">
+        <v>42</v>
+      </c>
+      <c r="J841" t="n">
+        <v>20</v>
+      </c>
+      <c r="K841" t="n">
+        <v>13</v>
+      </c>
+      <c r="L841" t="n">
+        <v>0</v>
+      </c>
+      <c r="M841" t="n">
+        <v>0</v>
+      </c>
+      <c r="N841" t="n">
+        <v>20</v>
+      </c>
+      <c r="O841" t="n">
+        <v>13</v>
+      </c>
+      <c r="P841" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q841" t="n">
+        <v>0</v>
+      </c>
+      <c r="R841" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="S841" t="inlineStr">
+        <is>
+          <t>STR&gt;2Hz</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
